--- a/1.项目计划/2.1.Kimi在软件开发中的使用.xlsx
+++ b/1.项目计划/2.1.Kimi在软件开发中的使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191576816831\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1984F53-D60B-47D6-A1B1-68B7D943F526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB04A89-CD75-459A-8C2B-9F5897C51AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>1.使用方面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>写代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封装代码为工具类方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +140,30 @@
         }else{
             new_UserChatList = userChatList.subList((pageNumber-1)*pageSize, userChatList.size());
         }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.写代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原始前端html页面抽取需要数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬取网站数据【浙大城市学院官网】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色：你是一位专业的前端和数据爬取工程师
+目标：你当前的任务是从html中捕获对应的需要超链接url对应的名词，并附带上对应的url
+输出格式：1. 教学科研机构：http://www.hzcu.edu.cn/col/col129/index.html
+​                    2. ...
+输入数据：{html}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,19 +625,36 @@
     </row>
     <row r="6" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="5">
         <v>45360</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="7" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45374</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/1.项目计划/2.1.Kimi在软件开发中的使用.xlsx
+++ b/1.项目计划/2.1.Kimi在软件开发中的使用.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\191576816831\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB04A89-CD75-459A-8C2B-9F5897C51AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E94650A-1D94-4FA0-B845-23B79CC9A006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>1.使用方面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,11 +159,84 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色：你是一位专业的前端和数据爬取工程师
+    <r>
+      <t xml:space="preserve">角色：你是一位专业的前端和数据爬取工程师
 目标：你当前的任务是从html中捕获对应的需要超链接url对应的名词，并附带上对应的url
 输出格式：1. 教学科研机构：http://www.hzcu.edu.cn/col/col129/index.html
-​                    2. ...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    2. ...
 输入数据：{html}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于多段中文的主观题评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-3-82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对测试集进行评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色：你是一位正在专业的大学教师
+目标：你当前的任务是根据标准答案，给学生回答的答案打分，分数0.0~1.0之间
+输出格式：分数0.0~1.0之间，保留小数点后1位
+输入数据：
+   1. 问题：浙大城市学院的校党政领导班子是怎样的？
+   2. 标准答案：
+      | 党委书记                                       | 洪庆华 |
+      | ---------------------------------------------- | ------ |
+      | 党委副书记、副校长                             | 杨　波 |
+      | 党委副书记                                     | 贾秀英 |
+      | 党委委员、副校长                               | 韦　巍 |
+      | 党委委员、副校长                               | 张德平 |
+      | 党委委员、纪委书记                             | 应方彩 |
+      | 党委委员、副校长                               | 斯荣喜 |
+      | 党委委员、副校长                               | 金　滔 |
+      | 党委副书记                                     | 叶桂方 |
+      | 党委委员、宣传部（教师工作部、新闻办公室）部长 | 李　磊 |
+      | 党委委员、组织部（统战部、党校）部长           | 高征兵 |
+   3. 考生答案：
+      | 党委书记                                       | 洪庆华 |
+      | ---------------------------------------------- | ------ |
+      | 党委副书记、副校长                             | 杨　波 |
+      | 党委副书记                                     | 贾秀英 |
+      | 党委委员、副校长                               | 韦　巍 |
+      | 党委委员、副校长                               | 洪庆华 |
+      | 党委委员、纪委书记                             | 应方彩 |
+      | 党委委员、副校长                               | 斯荣喜 |
+      | 党委委员、副校长                               | 金　滔 |
+      | 党委副书记                                     | 洪庆华 |
+      | 党委委员、宣传部（教师工作部、新闻办公室）部长 | 李　磊 |
+      | 党委委员、组织部（统战部、党校）部长           | 高征兵 |</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +261,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -522,9 +610,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -657,6 +745,23 @@
         <v>27</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
